--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
     <sheet name="2012年度工作项目" sheetId="7" r:id="rId2"/>
-    <sheet name="2012年度阶段性成果" sheetId="2" r:id="rId3"/>
+    <sheet name="2012年度一般性成果" sheetId="8" r:id="rId3"/>
+    <sheet name="2012年度阶段性成果" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,20 +66,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2012/4/29-2012/5/6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2012年度工作项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.安装SourceInsight，熟悉其工作环境
+2.熟悉wifi工作流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会基础的SourceInsight操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,7 +87,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +134,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +168,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -174,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -184,9 +199,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,13 +211,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,20 +232,113 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -293,57 +392,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -355,11 +403,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A4:C10" totalsRowShown="0">
-  <autoFilter ref="A4:C10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C8" totalsRowShown="0">
+  <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="2"/>
-    <tableColumn id="2" name="日志" dataDxfId="1"/>
+    <tableColumn id="1" name="日期" dataDxfId="7"/>
+    <tableColumn id="2" name="日志" dataDxfId="6"/>
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -367,12 +415,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="日期" dataDxfId="5"/>
-    <tableColumn id="2" name="项目" dataDxfId="4"/>
-    <tableColumn id="3" name="状态" dataDxfId="3"/>
+    <tableColumn id="1" name="日期" dataDxfId="4"/>
+    <tableColumn id="2" name="项目" dataDxfId="3"/>
+    <tableColumn id="3" name="状态" dataDxfId="2"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -380,7 +428,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -388,6 +436,18 @@
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:C8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="日期"/>
+    <tableColumn id="2" name="成果"/>
+    <tableColumn id="3" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -676,104 +736,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="28.25" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.75" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="8" max="8" width="5.375" customWidth="1"/>
     <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:10" ht="36.75">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="40.5">
+      <c r="A3" s="13">
+        <v>41028</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="13">
+        <v>41029</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="16"/>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="13"/>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="13"/>
+      <c r="A8" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,85 +826,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="41.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="A1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="36.75">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="9">
+      <c r="A3" s="7">
         <v>41028</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>41028</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <v>41030</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="9"/>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="9"/>
+      <c r="A8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -887,10 +925,90 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="35.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.25">
+      <c r="A2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="20.25">
+      <c r="A3" s="22">
+        <v>41028</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="20.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="20.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="20.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="20.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -903,38 +1021,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:11" ht="13.5" customHeight="1"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,13 @@
   </si>
   <si>
     <t>学会基础的SourceInsight操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>《数据结构与算法分析》C++描述 by M.A.Weiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -827,13 +834,13 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="63.125" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="6" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
   </cols>
@@ -895,6 +902,12 @@
     <row r="5" spans="1:11">
       <c r="A5" s="7">
         <v>41030</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -927,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,12 +89,17 @@
     <t>《数据结构与算法分析》C++描述 by M.A.Weiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.Wi-Fi数据发送与接收流程，上电到扫描、加入、认证、关联
+2.《Programming with ANSI-C》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +154,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -236,35 +249,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,7 +448,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -447,7 +460,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -746,7 +759,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -791,17 +804,20 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="40.5">
-      <c r="A3" s="13">
+    <row r="3" spans="1:10" ht="37.5">
+      <c r="A3" s="21">
         <v>41028</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="13">
+    <row r="4" spans="1:10" ht="56.25">
+      <c r="A4" s="21">
         <v>41029</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -834,7 +850,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -952,25 +968,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25">
-      <c r="A3" s="22">
+      <c r="A3" s="15">
         <v>41028</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -979,27 +995,27 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="20.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="6"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="20.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="20.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="6"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="20.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="6"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="20.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
     </row>
@@ -1034,38 +1050,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="20.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:11" ht="13.5" customHeight="1"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -91,7 +91,8 @@
   </si>
   <si>
     <t>1.Wi-Fi数据发送与接收流程，上电到扫描、加入、认证、关联
-2.《Programming with ANSI-C》</t>
+2.《微软团队-成功秘诀》
+3.《Programming with ANSI-C》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,26 +259,26 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +760,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -773,11 +774,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -805,18 +806,18 @@
       <c r="J2" s="8"/>
     </row>
     <row r="3" spans="1:10" ht="37.5">
-      <c r="A3" s="21">
+      <c r="A3" s="16">
         <v>41028</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="56.25">
-      <c r="A4" s="21">
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4" s="16">
         <v>41029</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -850,7 +851,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -862,12 +863,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -957,7 +958,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -968,11 +969,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1050,11 +1051,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,28 +71,38 @@
   </si>
   <si>
     <t>成果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会基础的SourceInsight操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+  </si>
+  <si>
+    <t>《数据结构与算法分析》C++描述 by M.A.Weiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.安装SourceInsight，熟悉其工作环境
 2.熟悉wifi工作流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学会基础的SourceInsight操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划</t>
-  </si>
-  <si>
-    <t>《数据结构与算法分析》C++描述 by M.A.Weiss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.Wi-Fi数据发送与接收流程，上电到扫描、加入、认证、关联
 2.《微软团队-成功秘诀》
 3.《Programming with ANSI-C》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Wi-Fi协议栈代码，学习大型程序的构建
+2.学习socket
+3.计划变音聊天程序开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变音聊天程序开发(采用C#)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,7 +220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,12 +289,49 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -384,35 +431,6 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,8 +445,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C8" totalsRowShown="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="7"/>
-    <tableColumn id="2" name="日志" dataDxfId="6"/>
+    <tableColumn id="1" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" name="日志" dataDxfId="0"/>
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -436,12 +454,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="日期" dataDxfId="4"/>
-    <tableColumn id="2" name="项目" dataDxfId="3"/>
-    <tableColumn id="3" name="状态" dataDxfId="2"/>
+    <tableColumn id="1" name="日期" dataDxfId="6"/>
+    <tableColumn id="2" name="项目" dataDxfId="5"/>
+    <tableColumn id="3" name="状态" dataDxfId="4"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -449,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -461,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -757,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -810,7 +828,7 @@
         <v>41028</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
@@ -821,17 +839,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:10" ht="56.25">
+      <c r="A5" s="23">
+        <v>41033</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10"/>
+      <c r="B6" s="24"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10"/>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75">
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="B12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="B13" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -850,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -921,14 +962,22 @@
         <v>41030</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7">
+        <v>41033</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7"/>
@@ -991,7 +1040,7 @@
         <v>41028</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="5"/>
     </row>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,13 @@
   </si>
   <si>
     <t>变音聊天程序开发(采用C#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.复习extern "C"
+2.复习微机原理，中断，汇编语言
+3.多线程模拟硬件中断
+4.关于线程的同步</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -275,63 +282,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -431,6 +407,37 @@
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -445,8 +452,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C8" totalsRowShown="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="1"/>
-    <tableColumn id="2" name="日志" dataDxfId="0"/>
+    <tableColumn id="1" name="日期" dataDxfId="7"/>
+    <tableColumn id="2" name="日志" dataDxfId="6"/>
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -454,12 +461,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A2:D8"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="日期" dataDxfId="6"/>
-    <tableColumn id="2" name="项目" dataDxfId="5"/>
-    <tableColumn id="3" name="状态" dataDxfId="4"/>
+    <tableColumn id="1" name="日期" dataDxfId="4"/>
+    <tableColumn id="2" name="项目" dataDxfId="3"/>
+    <tableColumn id="3" name="状态" dataDxfId="2"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -467,7 +474,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -479,7 +486,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -777,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -792,11 +799,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -840,39 +847,43 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="56.25">
-      <c r="A5" s="23">
+      <c r="A5" s="18">
         <v>41033</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="10"/>
-      <c r="B6" s="24"/>
+    <row r="6" spans="1:10" ht="75">
+      <c r="A6" s="18">
+        <v>41035</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="18.75">
-      <c r="B9" s="24"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
-      <c r="B10" s="24"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="18.75">
-      <c r="B11" s="24"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
-      <c r="B12" s="24"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:10" ht="18.75">
-      <c r="B13" s="24"/>
+      <c r="B13" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -891,7 +902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -904,12 +915,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1018,11 +1029,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1100,11 +1111,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,9 @@
   </si>
   <si>
     <t>1.复习extern "C"
-2.复习微机原理，中断，汇编语言
-3.多线程模拟硬件中断
-4.关于线程的同步</t>
+2.学习__cplusplus,__FUNCTION__等 C++预编译宏
+3.复习微机原理，中断，汇编语言
+4.多线程模拟硬件中断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +99,6 @@
     <t>1.Wi-Fi协议栈代码，学习大型程序的构建
 2.学习socket
 3.计划变音聊天程序开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变音聊天程序开发(采用C#)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -110,6 +106,27 @@
 2.学习__cplusplus,__FUNCTION__等 C++预编译宏
 3.复习微机原理，中断，汇编语言
 4.多线程模拟硬件中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《计算机网络》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变音聊天程序开发(采用C#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频电话背景替换研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.复习802.11权威指南MAC(3章)、成帧(4章)及省电部分
+2.学习P2P网络的概念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究Google Test源代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +197,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -227,7 +252,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -288,6 +313,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -302,6 +330,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,8 +495,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D8" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D9" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="日期" dataDxfId="4"/>
     <tableColumn id="2" name="项目" dataDxfId="3"/>
@@ -785,7 +819,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -799,11 +833,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -859,12 +893,16 @@
         <v>41035</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10"/>
-      <c r="B7" s="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="56.25">
+      <c r="A7" s="18">
+        <v>41042</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="10"/>
@@ -900,10 +938,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -915,12 +953,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -983,18 +1021,46 @@
       <c r="A6" s="7">
         <v>41033</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
+      <c r="B6" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7">
+        <v>41042</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7">
+        <v>41042</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="7">
+        <v>41045</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1002,13 +1068,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
       <formula1>"计划,开启,完成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1029,11 +1096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1111,11 +1178,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>研究Google Test源代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Win32多线程程序设计》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《微软团队-成功秘诀》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -316,26 +324,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,8 +503,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D9" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D11" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A2:D11"/>
   <tableColumns count="4">
     <tableColumn id="1" name="日期" dataDxfId="4"/>
     <tableColumn id="2" name="项目" dataDxfId="3"/>
@@ -833,11 +841,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -938,10 +946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -953,12 +961,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1008,21 +1016,21 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="7">
-        <v>41030</v>
+        <v>41029</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="7">
-        <v>41033</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>22</v>
+        <v>41030</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>15</v>
@@ -1030,10 +1038,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="7">
-        <v>41042</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>41033</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>15</v>
@@ -1043,8 +1051,8 @@
       <c r="A8" s="7">
         <v>41042</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>23</v>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>15</v>
@@ -1052,15 +1060,38 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="7">
+        <v>41042</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="7">
         <v>41045</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="7">
+        <v>41045</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1068,7 +1099,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11">
       <formula1>"计划,开启,完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1096,11 +1127,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1178,11 +1209,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -135,6 +131,18 @@
   </si>
   <si>
     <t>《微软团队-成功秘诀》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,7 +150,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +221,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -260,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,13 +358,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -494,8 +550,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C8" totalsRowShown="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="7"/>
-    <tableColumn id="2" name="日志" dataDxfId="6"/>
+    <tableColumn id="1" name="日期" dataDxfId="9"/>
+    <tableColumn id="2" name="日志" dataDxfId="8"/>
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -503,12 +559,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:D11" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A2:D11"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="日期" dataDxfId="4"/>
-    <tableColumn id="2" name="项目" dataDxfId="3"/>
-    <tableColumn id="3" name="状态" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:F11">
+    <filterColumn colId="1"/>
+    <filterColumn colId="2"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" name="入表日期" dataDxfId="6"/>
+    <tableColumn id="7" name="开始日期" dataDxfId="0"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="1"/>
+    <tableColumn id="2" name="项目" dataDxfId="5"/>
+    <tableColumn id="3" name="状态" dataDxfId="4"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -516,7 +577,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -528,7 +589,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -827,7 +888,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -859,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -877,7 +938,7 @@
         <v>41028</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="75">
@@ -885,7 +946,7 @@
         <v>41029</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="56.25">
@@ -893,7 +954,7 @@
         <v>41033</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="75">
@@ -901,7 +962,7 @@
         <v>41035</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="56.25">
@@ -909,7 +970,7 @@
         <v>41042</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -946,160 +1007,194 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="61.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36.75">
+    <row r="1" spans="1:13" ht="36.75">
       <c r="A1" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="36.75">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="36.75">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="7">
         <v>41028</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="28">
+        <v>41028</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="E3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="7">
         <v>41028</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" s="28">
+        <v>41028</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="7">
         <v>41029</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="B5" s="7">
+        <v>41029</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="7">
         <v>41030</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="E6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="7">
         <v>41033</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="7">
         <v>41042</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="7">
         <v>41042</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="7">
         <v>41045</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="7">
         <v>41045</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="22"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
       <formula1>"计划,开启,完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1116,7 +1211,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1138,7 +1233,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>3</v>
@@ -1149,7 +1244,7 @@
         <v>41028</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -1195,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1228,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>3</v>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《beyond the C++ STL》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,6 +349,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,9 +365,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -368,44 +372,6 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -477,6 +443,44 @@
         <color theme="1"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -559,17 +563,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F11" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:F11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:F12">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="入表日期" dataDxfId="6"/>
-    <tableColumn id="7" name="开始日期" dataDxfId="0"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="1"/>
-    <tableColumn id="2" name="项目" dataDxfId="5"/>
-    <tableColumn id="3" name="状态" dataDxfId="4"/>
+    <tableColumn id="7" name="开始日期" dataDxfId="5"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="4"/>
+    <tableColumn id="2" name="项目" dataDxfId="3"/>
+    <tableColumn id="3" name="状态" dataDxfId="2"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -577,7 +581,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -589,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -902,11 +906,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1007,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1024,14 +1028,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1066,7 +1070,7 @@
       <c r="A3" s="7">
         <v>41028</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="23">
         <v>41028</v>
       </c>
       <c r="C3" s="7"/>
@@ -1082,7 +1086,7 @@
       <c r="A4" s="7">
         <v>41028</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="23">
         <v>41028</v>
       </c>
       <c r="C4" s="7"/>
@@ -1187,6 +1191,20 @@
         <v>14</v>
       </c>
       <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="7">
+        <v>41045</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1194,7 +1212,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12">
       <formula1>"计划,开启,完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1222,11 +1240,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1290,7 +1308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1304,11 +1322,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>《beyond the C++ STL》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Dive Into Python》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +236,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -274,12 +293,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -367,11 +390,61 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -418,49 +491,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -563,17 +593,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F12" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:F12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:F13">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="入表日期" dataDxfId="6"/>
     <tableColumn id="7" name="开始日期" dataDxfId="5"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="4"/>
-    <tableColumn id="2" name="项目" dataDxfId="3"/>
-    <tableColumn id="3" name="状态" dataDxfId="2"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="2"/>
+    <tableColumn id="2" name="项目" dataDxfId="0"/>
+    <tableColumn id="3" name="状态" dataDxfId="1"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -581,7 +611,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -593,7 +623,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -1011,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1074,7 +1104,7 @@
         <v>41028</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1090,7 +1120,7 @@
         <v>41028</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1105,7 +1135,7 @@
         <v>41029</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="29" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1118,7 +1148,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="29" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1144,7 +1174,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="29" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1170,7 +1200,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="30" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -1184,7 +1214,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="30" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="21" t="s">
@@ -1198,13 +1228,27 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="29" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="7">
+        <v>41045</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1212,14 +1256,25 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13">
       <formula1>"计划,开启,完成"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D6" r:id="rId4"/>
+    <hyperlink ref="D8" r:id="rId5"/>
+    <hyperlink ref="D10" r:id="rId6"/>
+    <hyperlink ref="D11" r:id="rId7"/>
+    <hyperlink ref="D12" r:id="rId8"/>
+    <hyperlink ref="D13" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -375,6 +375,12 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,12 +394,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -402,49 +402,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -491,6 +448,49 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -601,9 +601,9 @@
   <tableColumns count="6">
     <tableColumn id="1" name="入表日期" dataDxfId="6"/>
     <tableColumn id="7" name="开始日期" dataDxfId="5"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="2"/>
-    <tableColumn id="2" name="项目" dataDxfId="0"/>
-    <tableColumn id="3" name="状态" dataDxfId="1"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="4"/>
+    <tableColumn id="2" name="项目" dataDxfId="3"/>
+    <tableColumn id="3" name="状态" dataDxfId="2"/>
     <tableColumn id="4" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -611,7 +611,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -623,7 +623,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -936,11 +936,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1058,14 +1058,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1104,7 +1104,7 @@
         <v>41028</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
@@ -1120,7 +1120,7 @@
         <v>41028</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
@@ -1135,7 +1135,7 @@
         <v>41029</v>
       </c>
       <c r="C5" s="7"/>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="21" t="s">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="21" t="s">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="24" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1295,11 +1295,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1377,11 +1377,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,13 @@
   <si>
     <t>《Dive Into Python》</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成敏捷培训总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -922,7 +929,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1008,8 +1015,12 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="10"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="18">
+        <v>40959</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="18.75">
       <c r="B9" s="19"/>
@@ -1044,7 +1055,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1119,12 +1130,14 @@
       <c r="B4" s="23">
         <v>41028</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>41049</v>
+      </c>
       <c r="D4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:13">

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -154,18 +154,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
     <t>1.完成敏捷培训总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +258,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -309,7 +317,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -402,6 +410,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -928,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1018,8 +1029,8 @@
       <c r="A8" s="18">
         <v>40959</v>
       </c>
-      <c r="B8" s="19" t="s">
-        <v>32</v>
+      <c r="B8" s="31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75">
@@ -1042,10 +1053,13 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1054,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1137,7 +1151,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:13">

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,34 +130,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《beyond the C++ STL》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《Dive Into Python》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>1.完成敏捷培训总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成《成功秘诀》阅读，并记录在evernote</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>《微软团队-成功秘诀》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入表日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《beyond the C++ STL》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《Dive Into Python》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>1.完成敏捷培训总结</t>
+    <t>完成敏捷培训总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成《微软团队成功秘诀》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,12 +271,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="14"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -317,7 +328,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -411,7 +422,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,8 +616,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C8" totalsRowShown="0">
-  <autoFilter ref="A2:C8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C9" totalsRowShown="0">
+  <autoFilter ref="A2:C9"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期" dataDxfId="9"/>
     <tableColumn id="2" name="日志" dataDxfId="8"/>
@@ -939,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1027,14 +1044,20 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="18">
-        <v>40959</v>
-      </c>
-      <c r="B8" s="31" t="s">
+        <v>41049</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="32">
+        <v>41062</v>
+      </c>
+      <c r="B9" s="31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75">
-      <c r="B9" s="19"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" spans="1:10" ht="18.75">
       <c r="B10" s="19"/>
@@ -1069,7 +1092,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1098,13 +1121,13 @@
     </row>
     <row r="2" spans="1:13" ht="36.75">
       <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -1151,7 +1174,7 @@
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1161,12 +1184,14 @@
       <c r="B5" s="7">
         <v>41029</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="7">
+        <v>41062</v>
+      </c>
       <c r="D5" s="24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1231,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F10" s="22"/>
     </row>
@@ -1256,7 +1281,7 @@
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
@@ -1270,7 +1295,7 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>14</v>
@@ -1310,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1340,7 +1365,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="20.25">
-      <c r="A3" s="15">
+      <c r="A3" s="7">
         <v>41028</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1349,13 +1374,21 @@
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="20.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7">
+        <v>41049</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="20.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7">
+        <v>41062</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="20.25">
@@ -1378,10 +1411,14 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="1.完成敏捷培训总结"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,10 @@
   </si>
   <si>
     <t>完成《微软团队成功秘诀》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《浪潮之巅》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,21 +411,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +419,21 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -628,8 +632,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F13" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A2:F13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F14" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A2:F14">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
@@ -956,7 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -971,11 +975,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1046,15 +1050,15 @@
       <c r="A8" s="18">
         <v>41049</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="32">
+      <c r="A9" s="27">
         <v>41062</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="22"/>
@@ -1089,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1106,14 +1110,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1301,6 +1305,19 @@
         <v>14</v>
       </c>
       <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="7">
+        <v>41076</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1308,7 +1325,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E14">
       <formula1>"计划,开启,完成"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1322,11 +1339,12 @@
     <hyperlink ref="D11" r:id="rId7"/>
     <hyperlink ref="D12" r:id="rId8"/>
     <hyperlink ref="D13" r:id="rId9"/>
+    <hyperlink ref="D14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1335,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1347,11 +1365,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1441,11 +1459,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,6 +174,13 @@
   </si>
   <si>
     <t>《浪潮之巅》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>书有错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +339,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,13 +441,44 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -488,18 +526,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -623,8 +649,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C9" totalsRowShown="0">
   <autoFilter ref="A2:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="9"/>
-    <tableColumn id="2" name="日志" dataDxfId="8"/>
+    <tableColumn id="1" name="日期" dataDxfId="10"/>
+    <tableColumn id="2" name="日志" dataDxfId="9"/>
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -632,25 +658,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F14" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F14" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A2:F14">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="入表日期" dataDxfId="6"/>
-    <tableColumn id="7" name="开始日期" dataDxfId="5"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="4"/>
-    <tableColumn id="2" name="项目" dataDxfId="3"/>
-    <tableColumn id="3" name="状态" dataDxfId="2"/>
-    <tableColumn id="4" name="备注"/>
+    <tableColumn id="1" name="入表日期" dataDxfId="7"/>
+    <tableColumn id="7" name="开始日期" dataDxfId="6"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="5"/>
+    <tableColumn id="2" name="项目" dataDxfId="4"/>
+    <tableColumn id="3" name="状态" dataDxfId="1"/>
+    <tableColumn id="4" name="备注" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -662,7 +688,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -1096,7 +1122,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1180,6 +1206,7 @@
       <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="7">
@@ -1197,6 +1224,7 @@
       <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="7">
@@ -1210,6 +1238,7 @@
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="5"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="7">
@@ -1223,6 +1252,7 @@
       <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="7">
@@ -1236,6 +1266,7 @@
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="7">
@@ -1249,6 +1280,7 @@
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="7">
@@ -1262,7 +1294,7 @@
       <c r="E10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7">
@@ -1276,7 +1308,7 @@
       <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7">
@@ -1288,9 +1320,11 @@
         <v>29</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="22"/>
+        <v>38</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="7">
@@ -1304,7 +1338,7 @@
       <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7">
@@ -1316,17 +1350,21 @@
         <v>37</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>7</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E14">
-      <formula1>"计划,开启,完成"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14">
+      <formula1>"计划,开启,完成,挂起"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
+      <formula1>"计划,开启,完成,挂起"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>书有错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《什么是数学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《架构之美》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +351,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -427,25 +439,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,31 +469,6 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -505,11 +495,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -519,13 +505,18 @@
         <name val="宋体"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -606,6 +597,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -658,25 +673,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F14" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A2:F14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F16" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:F16">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="入表日期" dataDxfId="7"/>
-    <tableColumn id="7" name="开始日期" dataDxfId="6"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="5"/>
-    <tableColumn id="2" name="项目" dataDxfId="4"/>
-    <tableColumn id="3" name="状态" dataDxfId="1"/>
-    <tableColumn id="4" name="备注" dataDxfId="0"/>
+    <tableColumn id="1" name="入表日期" dataDxfId="6"/>
+    <tableColumn id="7" name="开始日期" dataDxfId="5"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="4"/>
+    <tableColumn id="2" name="项目" dataDxfId="3"/>
+    <tableColumn id="3" name="状态" dataDxfId="2"/>
+    <tableColumn id="4" name="备注" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -688,7 +703,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -1001,11 +1016,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1119,10 +1134,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1136,14 +1152,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1186,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1236,7 +1252,7 @@
         <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -1278,7 +1294,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -1292,9 +1308,9 @@
         <v>24</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="34"/>
+        <v>38</v>
+      </c>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="7">
@@ -1308,7 +1324,7 @@
       <c r="E11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="7">
@@ -1322,7 +1338,7 @@
       <c r="E12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="29" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1338,13 +1354,15 @@
       <c r="E13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="7">
         <v>41076</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="23">
+        <v>41103</v>
+      </c>
       <c r="C14" s="23"/>
       <c r="D14" s="24" t="s">
         <v>37</v>
@@ -1353,6 +1371,34 @@
         <v>31</v>
       </c>
       <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="7">
+        <v>41105</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="36"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="7">
+        <v>41105</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1360,7 +1406,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E16">
       <formula1>"计划,开启,完成,挂起"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
@@ -1378,11 +1424,12 @@
     <hyperlink ref="D12" r:id="rId8"/>
     <hyperlink ref="D13" r:id="rId9"/>
     <hyperlink ref="D14" r:id="rId10"/>
+    <hyperlink ref="D16" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1403,11 +1450,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1497,11 +1544,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,7 +192,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划</t>
+    <t>《经典密码学与现代密码学》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,23 +445,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,6 +469,30 @@
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -597,30 +621,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -673,25 +673,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:F16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F17" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A2:F17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="入表日期" dataDxfId="6"/>
-    <tableColumn id="7" name="开始日期" dataDxfId="5"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="4"/>
-    <tableColumn id="2" name="项目" dataDxfId="3"/>
-    <tableColumn id="3" name="状态" dataDxfId="2"/>
-    <tableColumn id="4" name="备注" dataDxfId="1"/>
+    <tableColumn id="1" name="入表日期" dataDxfId="7"/>
+    <tableColumn id="7" name="开始日期" dataDxfId="6"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="5"/>
+    <tableColumn id="2" name="项目" dataDxfId="4"/>
+    <tableColumn id="3" name="状态" dataDxfId="3"/>
+    <tableColumn id="4" name="备注" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -703,7 +703,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -1016,11 +1016,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1134,11 +1134,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1152,14 +1152,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1246,7 +1246,9 @@
       <c r="A6" s="7">
         <v>41030</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7">
+        <v>41061</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="24" t="s">
         <v>15</v>
@@ -1376,7 +1378,9 @@
       <c r="A15" s="7">
         <v>41105</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="23">
+        <v>41061</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="6" t="s">
         <v>40</v>
@@ -1384,33 +1388,54 @@
       <c r="E15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="36"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="7">
         <v>41105</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="23">
+        <v>41061</v>
+      </c>
       <c r="C16" s="23"/>
       <c r="D16" s="24" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
+        <v>41117</v>
+      </c>
+      <c r="B17" s="23">
+        <v>41117</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="E17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E16">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E5">
       <formula1>"计划,开启,完成,挂起"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3">
       <formula1>"计划,开启,完成,挂起"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E17">
+      <formula1>"计划,开启,完成,挂起,取消"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1425,11 +1450,12 @@
     <hyperlink ref="D13" r:id="rId9"/>
     <hyperlink ref="D14" r:id="rId10"/>
     <hyperlink ref="D16" r:id="rId11"/>
+    <hyperlink ref="D17" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1450,11 +1476,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1544,11 +1570,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -677,6 +677,11 @@
   <autoFilter ref="A2:F17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="开启"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <tableColumns count="6">
     <tableColumn id="1" name="入表日期" dataDxfId="7"/>
@@ -1138,7 +1143,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25"/>
@@ -1190,7 +1195,7 @@
       <c r="J2" s="3"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" hidden="1">
       <c r="A3" s="7">
         <v>41028</v>
       </c>
@@ -1206,7 +1211,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" hidden="1">
       <c r="A4" s="7">
         <v>41028</v>
       </c>
@@ -1224,7 +1229,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" hidden="1">
       <c r="A5" s="7">
         <v>41029</v>
       </c>
@@ -1268,11 +1273,11 @@
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" hidden="1">
       <c r="A8" s="7">
         <v>41042</v>
       </c>
@@ -1286,7 +1291,7 @@
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" hidden="1">
       <c r="A9" s="7">
         <v>41042</v>
       </c>
@@ -1296,11 +1301,11 @@
         <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" hidden="1">
       <c r="A10" s="7">
         <v>41045</v>
       </c>
@@ -1314,7 +1319,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" hidden="1">
       <c r="A11" s="7">
         <v>41045</v>
       </c>
@@ -1328,7 +1333,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" hidden="1">
       <c r="A12" s="7">
         <v>41045</v>
       </c>
@@ -1344,7 +1349,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" hidden="1">
       <c r="A13" s="7">
         <v>41045</v>
       </c>
@@ -1358,7 +1363,7 @@
       </c>
       <c r="F13" s="30"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" hidden="1">
       <c r="A14" s="7">
         <v>41076</v>
       </c>
@@ -1390,7 +1395,7 @@
       </c>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" hidden="1">
       <c r="A16" s="7">
         <v>41105</v>
       </c>
@@ -1402,11 +1407,11 @@
         <v>41</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="7">
         <v>41117</v>
       </c>
@@ -1418,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="F17" s="31"/>
     </row>

--- a/trunk/WorkList.xlsx
+++ b/trunk/WorkList.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="2012年度工作日志" sheetId="1" r:id="rId1"/>
     <sheet name="2012年度工作项目" sheetId="7" r:id="rId2"/>
     <sheet name="2012年度一般性成果" sheetId="8" r:id="rId3"/>
     <sheet name="2012年度阶段性成果" sheetId="2" r:id="rId4"/>
+    <sheet name="2013年度工作日志" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>2012年度工作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +194,26 @@
   </si>
   <si>
     <t>《经典密码学与现代密码学》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.了解android目录结构
+2.stereo sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013年度工作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.启动patreco计划
+E:\work_\patreco</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.perceptron初版完成
+遗留：1)多类别perceptron
+      2)按误差结束perceptron算法online存问题         </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +321,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -351,7 +380,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -468,7 +500,38 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -664,8 +727,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="表13" displayName="表13" ref="A2:C9" totalsRowShown="0">
   <autoFilter ref="A2:C9"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="日期" dataDxfId="10"/>
-    <tableColumn id="2" name="日志" dataDxfId="9"/>
+    <tableColumn id="1" name="日期" dataDxfId="12"/>
+    <tableColumn id="2" name="日志" dataDxfId="11"/>
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -673,7 +736,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F17" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="表8" displayName="表8" ref="A2:F17" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A2:F17">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
@@ -684,19 +747,19 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name="入表日期" dataDxfId="7"/>
-    <tableColumn id="7" name="开始日期" dataDxfId="6"/>
-    <tableColumn id="6" name="完成日期" dataDxfId="5"/>
-    <tableColumn id="2" name="项目" dataDxfId="4"/>
-    <tableColumn id="3" name="状态" dataDxfId="3"/>
-    <tableColumn id="4" name="备注" dataDxfId="2"/>
+    <tableColumn id="1" name="入表日期" dataDxfId="9"/>
+    <tableColumn id="7" name="开始日期" dataDxfId="8"/>
+    <tableColumn id="6" name="完成日期" dataDxfId="7"/>
+    <tableColumn id="2" name="项目" dataDxfId="6"/>
+    <tableColumn id="3" name="状态" dataDxfId="5"/>
+    <tableColumn id="4" name="备注" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表15_2" displayName="表15_2" ref="A2:C8" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -708,7 +771,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="表15" displayName="表15" ref="A2:C8" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A2:C8"/>
   <tableColumns count="3">
     <tableColumn id="1" name="日期"/>
@@ -716,6 +779,18 @@
     <tableColumn id="3" name="备注"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表13_3" displayName="表13_3" ref="A2:C9" totalsRowShown="0">
+  <autoFilter ref="A2:C9"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="日期" dataDxfId="1"/>
+    <tableColumn id="2" name="日志" dataDxfId="0"/>
+    <tableColumn id="3" name="备注"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1021,11 +1096,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -1141,7 +1216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
@@ -1157,14 +1232,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.75">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -1481,11 +1556,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="35.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.25">
       <c r="A2" s="14" t="s">
@@ -1575,11 +1650,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
@@ -1621,4 +1696,120 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25"/>
+  <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="5.375" customWidth="1"/>
+    <col min="9" max="9" width="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="36.75">
+      <c r="A1" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="37.5">
+      <c r="A3" s="16">
+        <v>41568</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="37.5">
+      <c r="A4" s="16">
+        <v>41569</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="56.25">
+      <c r="A5" s="16">
+        <v>41581</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="18"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="18"/>
+      <c r="B7" s="17"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="18"/>
+      <c r="B8" s="28"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="27"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75">
+      <c r="B10" s="19"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75">
+      <c r="B11" s="19"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.75">
+      <c r="B12" s="19"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="B13" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>